--- a/xlsx/情人节_intext.xlsx
+++ b/xlsx/情人节_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>情人节</t>
   </si>
@@ -29,7 +29,7 @@
     <t>情人节 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_情人节</t>
+    <t>政策_政策_美国_情人节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%B1%E6%AF%94%E7%89%B9</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>公曆</t>
+    <t>公历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A7%E5%85%8B%E5%8A%9B</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>南亞</t>
+    <t>南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E7%9A%87%E5%B8%9D</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%93%A6%E5%80%AB%E4%B8%81</t>
   </si>
   <si>
-    <t>聖瓦倫丁</t>
+    <t>圣瓦伦丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%9E%E6%AD%BB</t>
   </si>
   <si>
-    <t>絞死</t>
+    <t>绞死</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/World_Book_Encyclopedia</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
-    <t>羅馬皇帝</t>
+    <t>罗马皇帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E7%A6%AE</t>
   </si>
   <si>
-    <t>婚禮</t>
+    <t>婚礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%92</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A2%E7%8D%84</t>
   </si>
   <si>
-    <t>牢獄</t>
+    <t>牢狱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%98%8E</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8F%E6%A8%B9</t>
   </si>
   <si>
-    <t>杏樹</t>
+    <t>杏树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2%E6%9C%8814%E6%97%A5</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E7%A5%9E%E8%8A%82</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>天主教百科全書</t>
+    <t>天主教百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/496%E5%B9%B4</t>
@@ -227,25 +227,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9F%BA%E6%8B%89%E8%A5%BF%E7%83%8F%E6%96%AF%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>聖基拉西烏斯一世</t>
+    <t>圣基拉西乌斯一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%A2%B5%E8%92%82%E5%B2%A1%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第二次梵蒂岡大公會議</t>
+    <t>第二次梵蒂冈大公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9C%83</t>
   </si>
   <si>
-    <t>約會</t>
+    <t>约会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E6%96%87</t>
   </si>
   <si>
-    <t>希伯來文</t>
+    <t>希伯来文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%B3%A2%E6%9C%88</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -329,25 +329,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%A3%BE</t>
   </si>
   <si>
-    <t>首飾</t>
+    <t>首饰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%A5%B3_(%E6%BD%AE%E8%AA%9E)</t>
   </si>
   <si>
-    <t>港女 (潮語)</t>
+    <t>港女 (潮语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B8%B6</t>
   </si>
   <si>
-    <t>領帶</t>
+    <t>领带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8D%E5%B7%BE</t>
   </si>
   <si>
-    <t>圍巾</t>
+    <t>围巾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E8%A1%A3</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -377,19 +377,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%89%B2%E6%83%85%E4%BA%BA%E7%AF%80</t>
   </si>
   <si>
-    <t>白色情人節</t>
+    <t>白色情人节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%80%E8%B3%A3%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>讀賣新聞</t>
+    <t>读卖新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -449,49 +449,46 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%BA%AB%E7%AF%80</t>
   </si>
   <si>
-    <t>單身節</t>
+    <t>单身节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%A3%8D%E7%AF%80</t>
   </si>
   <si>
-    <t>光棍節</t>
+    <t>光棍节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%BA%AB</t>
   </si>
   <si>
-    <t>單身</t>
+    <t>单身</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E5%B0%94%E5%93%A5%E7%BD%97%E5%BE%B7%E5%B7%9E</t>
@@ -527,13 +524,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B7%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>上巳節</t>
+    <t>上巳节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AB%E5%A6%BB%E7%AF%80</t>
   </si>
   <si>
-    <t>夫妻節</t>
+    <t>夫妻节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%80%9A%E7%A4%BE</t>
@@ -3056,7 +3053,7 @@
         <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3082,10 +3079,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3111,10 +3108,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3140,10 +3137,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3169,10 +3166,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>12</v>
@@ -3198,10 +3195,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3227,10 +3224,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3256,10 +3253,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3285,10 +3282,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -3314,10 +3311,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3343,10 +3340,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3372,10 +3369,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3430,10 +3427,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3459,10 +3456,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
